--- a/excel/picture/copyOutAndUnpack.xlsx
+++ b/excel/picture/copyOutAndUnpack.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>子脚本输出</t>
     <rPh sb="0" eb="1">
@@ -226,47 +226,100 @@
     <t>脚本路径</t>
   </si>
   <si>
-    <t>同一个Icon图标，生成Ios和Android所需的图标</t>
+    <t>从工程目录中拷贝出plist大图，放置到目标文件夹中，大图拆分成的小图放置到同名的文件夹</t>
     <rPh sb="0" eb="1">
       <t>li'yonggei'dingjing'xiangchuang'jianrong'qiying'sheduan'kou</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>baseIconPath</t>
+    <t>sourceFolder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>iosIconsPath</t>
+    <t>工程的资源目录</t>
+    <rPh sb="0" eb="2">
+      <t>gong'cheng</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>androidIconsPath</t>
+    <t>工程中的res目录</t>
+    <rPh sb="0" eb="1">
+      <t>gong'cheng</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ios 工程 Icon 路径</t>
+    <t>putInToFolder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在那个路径下进行拆分</t>
     <rPh sb="0" eb="1">
       <t>duan'kouying'she</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>android 工程 Icon 路径</t>
+    <t>目标文件夹，先拷贝到这里，再进行拆分</t>
+    <rPh sb="0" eb="1">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="284" eb="285">
+      <t>gong'cheng</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>图标文件路径</t>
+    <t>'目标文件夹，先拷贝到这里，再进行拆分</t>
   </si>
   <si>
-    <t>测试，使用了一个透明图，但是，实际工程，千万保证图片没有透明度</t>
-    <rPh sb="0" eb="2">
-      <t>ce'shi</t>
+    <t>'工程中的res目录</t>
+  </si>
+  <si>
+    <t>Stage2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除现有plist图片，将文件夹合并成plist大图，删除碎图，拷贝回工程</t>
+    <rPh sb="0" eb="1">
+      <t>li'yonggei'dingjing'xiangchuang'jianrong'qiying'sheduan'kou</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>backIntoFolder</t>
+  </si>
+  <si>
+    <t>工程中的res目录</t>
+    <rPh sb="0" eb="1">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="284" eb="285">
+      <t>gong'cheng</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆分大图的那个文件夹</t>
+    <rPh sb="0" eb="1">
+      <t>chai'fen</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>gong'cheng</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>'拆分大图的那个文件夹</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="15"/>
       <color indexed="8"/>
@@ -343,6 +396,12 @@
     <font>
       <sz val="9"/>
       <color theme="0"/>
+      <name val="兰亭黑-简 中黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="兰亭黑-简 中黑"/>
       <charset val="134"/>
     </font>
@@ -4052,59 +4111,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1133" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1133" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1133" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1134">
@@ -5630,7 +5689,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -5674,7 +5733,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -5696,7 +5755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5751,11 +5810,11 @@
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30" t="str">
+      <c r="C4" s="33" t="str">
         <f ca="1">REPLACE(CELL("filename"),FIND("[",CELL("filename"))-1,99,)</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/picture</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -5765,11 +5824,11 @@
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="28" t="str">
+      <c r="C5" s="39" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/base/ExcelWorkFlow.py"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/picture/../../pythonCode/base/ExcelWorkFlow.py</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -5779,109 +5838,109 @@
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="28" t="str">
+      <c r="C6" s="39" t="str">
         <f ca="1">C4&amp;"/../../test"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/picture/../../test</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="15">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="28" t="str">
+      <c r="C7" s="39" t="str">
         <f ca="1">C4&amp;"/../../temp"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/picture/../../temp</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="15">
       <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="28" t="str">
+      <c r="C8" s="39" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/ClientTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/picture/../../pythonCode/ClientTools</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:11" ht="15">
       <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="28" t="str">
+      <c r="C9" s="39" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/ServerTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/picture/../../pythonCode/ServerTools</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:11" ht="15">
       <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="28" t="str">
+      <c r="C10" s="39" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/CommonTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/picture/../../pythonCode/CommonTools</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:11" ht="15">
       <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="26" t="str">
+      <c r="C11" s="25" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
         <v>copyOutAndUnpack.xlsx</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:11" ht="15">
       <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="26" t="str">
+      <c r="C12" s="25" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH(".xlsx",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
         <v>copyOutAndUnpack</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:11" ht="15">
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="30" t="str">
+      <c r="C13" s="33" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))</f>
         <v>pngTest</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:11" ht="15">
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="39" t="str">
+      <c r="C14" s="35" t="str">
         <f ca="1">C4&amp;"/"&amp;C11</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/picture/copyOutAndUnpack.xlsx</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:11" ht="15">
       <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
         <v>22</v>
@@ -5891,21 +5950,21 @@
       <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="15">
       <c r="B17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="41" t="str">
+      <c r="C17" s="37" t="str">
         <f ca="1">"python "&amp;C5&amp;" -e "&amp;C14</f>
         <v>python /Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/picture/../../pythonCode/base/ExcelWorkFlow.py -e /Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/picture/copyOutAndUnpack.xlsx</v>
       </c>
-      <c r="D17" s="42"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="20">
@@ -5928,10 +5987,10 @@
       <c r="B20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="36"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="18"/>
       <c r="F20" s="19"/>
     </row>
@@ -5942,61 +6001,120 @@
       <c r="B21" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="37" t="str">
-        <f ca="1">C10&amp;"/Picture/IconDuplicate.py"</f>
-        <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/picture/../../pythonCode/CommonTools/Picture/IconDuplicate.py</v>
-      </c>
-      <c r="D21" s="38"/>
+      <c r="C21" s="31" t="str">
+        <f ca="1">C10&amp;"/Picture/CocosPlistToPng.py"</f>
+        <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/picture/../../pythonCode/CommonTools/Picture/CocosPlistToPng.py</v>
+      </c>
+      <c r="D21" s="32"/>
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="A22" s="24"/>
       <c r="B22" s="22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="25" t="str">
-        <f ca="1">C6&amp;"/res/pngs/anchor.png"</f>
-        <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/picture/../../test/res/pngs/anchor.png</v>
+      <c r="D22" s="42" t="s">
+        <v>33</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="A23" s="24"/>
       <c r="B23" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="25" t="str">
-        <f ca="1">C7&amp;"/IconDuplicate/iosIconPath"</f>
-        <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/picture/../../temp/IconDuplicate/iosIconPath</v>
-      </c>
-      <c r="E23" s="18"/>
+      <c r="D23" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:7" ht="25" customHeight="1" thickBot="1">
-      <c r="B24" s="22" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="A25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="A26" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="31" t="str">
+        <f ca="1">C10&amp;"/Picture/CocosPngToPlist.py"</f>
+        <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/picture/../../pythonCode/CommonTools/Picture/CocosPngToPlist.py</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="A27" s="24"/>
+      <c r="B27" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="A28" s="24"/>
+      <c r="B28" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="25" t="str">
-        <f ca="1">C7&amp;"/IconDuplicate/AndroidIconPath"</f>
-        <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/picture/../../temp/IconDuplicate/AndroidIconPath</v>
-      </c>
-      <c r="E24" s="18"/>
+      <c r="C28" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C20:D20"/>
@@ -6005,21 +6123,13 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>J2:J4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21 A26">
       <formula1>J4:J5</formula1>
     </dataValidation>
   </dataValidations>
